--- a/批量导入模板/音乐教师期中考核模板.xlsx
+++ b/批量导入模板/音乐教师期中考核模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC706A-F557-45B2-ABAA-FB6D88C6F6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,163 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.27</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.28</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.29</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.30</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.31</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.32</t>
+  </si>
+  <si>
+    <t>2025.02.19-04.33</t>
+  </si>
+  <si>
+    <t>2024-2025上学期</t>
+  </si>
+  <si>
+    <t>考核类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外工作节数折算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺体活动竞赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总工作量节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时工作量成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规教学薄成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +203,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +493,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>116.8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>34.199999999999996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>198</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>149.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.0242424242424244</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.9849999999999994</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1">
+        <v>174.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.0464646464646465</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>157.10000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.3474747474747488</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>160.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.4848484848484844</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>104.80000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>167.70000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.7757575757575763</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.9699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>96.800000000000011</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>180.10000000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7.2767676767676779</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>168.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6.8121212121212116</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.9550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>